--- a/PCB/Project Outputs for SNES TST/Rev 0/Documentation NTSC System/Bill of Materials-SNES TST(NTSC System).xlsx
+++ b/PCB/Project Outputs for SNES TST/Rev 0/Documentation NTSC System/Bill of Materials-SNES TST(NTSC System).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feren\AppData\Local\TempReleases\Snapshot\7\Documentation NTSC System\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ft\AppData\Local\TempReleases\Snapshot\3\Documentation NTSC System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D265F34E-09C3-4881-A026-710B82876CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18700839-1F55-48A6-BCBC-928F564FC878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12972" yWindow="2208" windowWidth="9600" windowHeight="8964" xr2:uid="{787D4FFF-7423-478A-9246-E639F41EC126}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{BEE43C44-06A1-49E9-B93B-AD81A7F34CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-SNES TST(NTSC" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -650,7 +648,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -666,7 +664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -961,25 +959,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3296CDB3-4FBA-4982-8501-688046FD448D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9ABEED-98B7-4B98-9ADF-120BFE65B554}">
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" customWidth="1"/>
-    <col min="8" max="8" width="19.21875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1011,7 +1009,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1039,7 +1037,7 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1065,7 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1093,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1123,7 +1121,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>27</v>
       </c>
@@ -1151,7 +1149,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1179,7 +1177,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1231,7 +1229,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>47</v>
       </c>
@@ -1257,7 +1255,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>53</v>
       </c>
@@ -1283,7 +1281,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
@@ -1309,7 +1307,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1335,7 +1333,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>70</v>
       </c>
@@ -1361,7 +1359,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>75</v>
       </c>
@@ -1387,7 +1385,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
@@ -1413,7 +1411,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>86</v>
       </c>
@@ -1439,7 +1437,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>92</v>
       </c>
@@ -1465,7 +1463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>97</v>
       </c>
@@ -1491,7 +1489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>103</v>
       </c>
@@ -1517,7 +1515,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
@@ -1543,7 +1541,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>113</v>
       </c>
@@ -1569,7 +1567,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>117</v>
       </c>
@@ -1595,7 +1593,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>121</v>
       </c>
@@ -1619,7 +1617,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>126</v>
       </c>
@@ -1643,7 +1641,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>129</v>
       </c>
@@ -1667,7 +1665,7 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>133</v>
       </c>
@@ -1691,7 +1689,7 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>136</v>
       </c>
@@ -1715,7 +1713,7 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>140</v>
       </c>
@@ -1739,7 +1737,7 @@
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>143</v>
       </c>
@@ -1763,7 +1761,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>146</v>
       </c>
@@ -1787,7 +1785,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>149</v>
       </c>
@@ -1811,7 +1809,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>152</v>
       </c>
@@ -1835,7 +1833,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>155</v>
       </c>
@@ -1859,7 +1857,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>158</v>
       </c>
@@ -1883,7 +1881,7 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>161</v>
       </c>
@@ -1907,7 +1905,7 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>164</v>
       </c>
@@ -1931,7 +1929,7 @@
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>167</v>
       </c>
@@ -1955,7 +1953,7 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>170</v>
       </c>
@@ -1979,7 +1977,7 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>172</v>
       </c>
@@ -2003,7 +2001,7 @@
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>175</v>
       </c>
@@ -2027,7 +2025,7 @@
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>178</v>
       </c>
@@ -2051,7 +2049,7 @@
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>180</v>
       </c>
@@ -2076,7 +2074,7 @@
       <c r="J43" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>